--- a/LF/TAS/Benin/bj_lf_tas2_4_sites_202006.xlsx
+++ b/LF/TAS/Benin/bj_lf_tas2_4_sites_202006.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\TAS\Benin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578B15C3-B065-4D87-9A7C-33E29F42B102}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CEF2970-0DA0-4DFD-8E49-8A31051E2251}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15360" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="122">
   <si>
     <t>form_title</t>
   </si>
@@ -389,10 +389,13 @@
     <t>Repeat the cluster ID</t>
   </si>
   <si>
-    <t>bj_lf_tas2_1_sites_202010_v2</t>
-  </si>
-  <si>
-    <t>4. Benin - TAS2 FL Form Site (Octobre 2020) V3</t>
+    <t>Répéter le code de l'école</t>
+  </si>
+  <si>
+    <t>4. Benin - TAS2 FL Form Site (Octobre 2020) V4</t>
+  </si>
+  <si>
+    <t>bj_lf_tas2_1_sites_202010_v3</t>
   </si>
 </sst>
 </file>
@@ -919,10 +922,10 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H6" sqref="H6:J7"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -945,7 +948,7 @@
     <col min="16" max="16" width="36.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -1169,7 +1172,7 @@
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="11" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="14"/>
@@ -1817,7 +1820,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1846,7 +1849,7 @@
         <v>120</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C2">
         <v>20201006</v>
